--- a/planilha_alunos.xlsx
+++ b/planilha_alunos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Automação de certificados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\ESTUDOS\CURSO EM VIDEO\automacao-de-certificados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="313">
   <si>
     <t>Nome do Curso</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>Thiago Galhango Mateotta</t>
+  </si>
+  <si>
+    <t>aluno</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1234,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1279,7 @@
         <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
